--- a/Radar/Книга1.xlsx
+++ b/Radar/Книга1.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>N</t>
   </si>
@@ -54,13 +54,60 @@
   </si>
   <si>
     <t>Rfout, МГц</t>
+  </si>
+  <si>
+    <t>Fres, Гц</t>
+  </si>
+  <si>
+    <t>DEV_OFFSET</t>
+  </si>
+  <si>
+    <t>DeltaF, МГц</t>
+  </si>
+  <si>
+    <r>
+      <t>f</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Calibry"/>
+        <charset val="204"/>
+      </rPr>
+      <t>DEV_RES, Гц</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">DEV </t>
+  </si>
+  <si>
+    <t>STEP</t>
+  </si>
+  <si>
+    <t>fdev, кГц</t>
+  </si>
+  <si>
+    <t>FDEV, МГц</t>
+  </si>
+  <si>
+    <t>CLK1</t>
+  </si>
+  <si>
+    <t>Fm, кГц</t>
+  </si>
+  <si>
+    <t>Timer, us</t>
+  </si>
+  <si>
+    <t>CLK2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -73,6 +120,25 @@
       <sz val="10"/>
       <name val="JetBrains Mono"/>
       <family val="3"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibry"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <color theme="1"/>
+      <name val="Calibry"/>
       <charset val="204"/>
     </font>
   </fonts>
@@ -102,12 +168,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -388,19 +456,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K6"/>
+  <dimension ref="A1:K14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
+    <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11">
       <c r="D1" t="s">
         <v>1</v>
       </c>
@@ -417,27 +487,27 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11">
       <c r="D2" s="2">
-        <v>300</v>
+        <v>71</v>
       </c>
       <c r="E2" s="2">
         <v>0</v>
       </c>
       <c r="F2">
         <f>D2+E2/2^25</f>
-        <v>300</v>
+        <v>71</v>
       </c>
       <c r="I2">
         <f>F2*F6</f>
-        <v>3000</v>
+        <v>2840</v>
       </c>
       <c r="K2">
         <f>I2*8/1000</f>
-        <v>24</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+        <v>22.72</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -453,8 +523,11 @@
       <c r="F5" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
       <c r="A6" s="1">
         <v>80</v>
       </c>
@@ -462,14 +535,96 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="F6">
         <f>A6*((1+B6)/(C6*(1+D6)))</f>
+        <v>40</v>
+      </c>
+      <c r="G6">
+        <f>F6*1000000/2^25</f>
+        <v>1.1920928955078125</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="15.75">
+      <c r="A9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9" t="s">
+        <v>15</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I9" t="s">
+        <v>16</v>
+      </c>
+      <c r="J9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10">
+        <v>0.1</v>
+      </c>
+      <c r="C10">
+        <v>7</v>
+      </c>
+      <c r="D10">
+        <v>14828</v>
+      </c>
+      <c r="E10">
+        <v>100</v>
+      </c>
+      <c r="G10">
+        <f>G6*2^C10</f>
+        <v>152.587890625</v>
+      </c>
+      <c r="I10">
+        <f>D10/(G6*2^C10)/1000</f>
+        <v>9.7176780800000001E-2</v>
+      </c>
+      <c r="J10">
+        <f>I10*E10/1000</f>
+        <v>9.7176780800000001E-3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" t="s">
+        <v>20</v>
+      </c>
+      <c r="E13" t="s">
+        <v>18</v>
+      </c>
+      <c r="F13" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14">
         <v>10</v>
+      </c>
+      <c r="C14">
+        <f>1000000/E10/A14/1000</f>
+        <v>1</v>
+      </c>
+      <c r="E14">
+        <v>6</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
